--- a/黄书园/第六周/缺陷报告.xlsx
+++ b/黄书园/第六周/缺陷报告.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangshuyuan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A8D478-DC4F-4860-8A35-77F36DAA3AE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very high</t>
+  </si>
+  <si>
+    <t>不使用账号密码也可以直接登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加食品后没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试"我的心得"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击相机图标后没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置图标后没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>黄书园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空密码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空用户名及密码登录</t>
+  </si>
+  <si>
+    <t>测试食品“做饭"按钮</t>
+  </si>
+  <si>
+    <t>测试添加功能</t>
+  </si>
+  <si>
+    <t>测试拍照按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击"我的心得"没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用密码也可以登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击主页食品右侧的做饭按钮没有反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +166,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +240,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +275,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -330,13 +456,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44331</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{76CE11BE-B42F-438F-BAB7-0792781F3BA6}">
+      <formula1>"Urgent,Very high,High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>